--- a/Area de proceso PPQA/TM_0.1_2014 Tablero metrica_3_BETO.xlsx
+++ b/Area de proceso PPQA/TM_0.1_2014 Tablero metrica_3_BETO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOSHITOMI\Google Drive\9no Ciclo\Proyecto de Desarrollo de Software I\Proyecto - Sistema de Delivery Online\Entregables\Ultima Presentacion\Area MA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -80,9 +75,6 @@
     <t>Sistema de Delivery Online</t>
   </si>
   <si>
-    <t>SISTEMA DE DELIVERY ONLINE</t>
-  </si>
-  <si>
     <t>Exposicion al Riesgo</t>
   </si>
   <si>
@@ -99,6 +91,9 @@
   </si>
   <si>
     <t>&gt;10</t>
+  </si>
+  <si>
+    <t>SISTEMA DE AGENCIAS DE VIAJE</t>
   </si>
 </sst>
 </file>
@@ -905,38 +900,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>364166</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>172085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="31667" b="32500"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="47626"/>
-          <a:ext cx="1735766" cy="457200"/>
+          <a:off x="9525" y="18415"/>
+          <a:ext cx="2076450" cy="553720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,7 +987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,7 +1022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1238,7 +1234,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1304,7 @@
     </row>
     <row r="5" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -1427,13 +1423,13 @@
         <v>6</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="11">
         <v>6</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="11">
         <v>36</v>
@@ -1466,13 +1462,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>10</v>
@@ -1539,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -1565,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18">
         <v>0</v>
